--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/61_Nevşehir_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/61_Nevşehir_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B67A33FD-9ACB-4645-97D0-827CBDF69A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFE5010C-2D7A-44BC-8913-423247153F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{24956C9E-5905-4F5C-AF66-7F0438511A1F}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{C24DF6F6-D04F-46A1-B832-903CF3E996F7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -983,14 +983,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{490C01FE-4FAA-4746-B8B0-C7F98C1E6FC2}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{931DD82E-7B96-40B6-921A-97CBE74F88AB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{2AD1AD8B-1BF8-41FC-8BB3-6D5420DF1A58}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{78E30FB0-8FFF-49BE-99F0-0008F665782C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{814F4F4C-2382-4499-876F-2049B859427D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{1C8ACABF-5D17-4154-AD35-9E0DE2C87340}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{68F337E0-9B07-4AFA-B65F-AAF1742C7B86}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{91AE0FB1-6CE5-47C8-A88C-8A753CF222A2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{ECC2A7EF-8216-4E55-B0CD-AC78946B358D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5EBB52E3-C854-4A08-A821-E3BD4D5A18B1}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{48CA23B4-AC7E-4BF8-88F4-96F4398C11BC}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{FFC32D07-20BF-45CF-BF85-8075D967C2BA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{33298D3B-EE46-45B8-9CD2-35C66481FFEB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4996A9E0-FB6D-4B22-AC73-9683D3DF63F6}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F329EC00-FD57-4D62-B9AA-A2940D26B1DC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{00FE46EF-6D9C-4823-8877-2CDCB94083FC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A44542-EF30-4016-B6E8-D1C3F374D997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE51DC-0C66-490C-9150-B52AA91C6D69}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2590,18 +2590,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F962BCB-C3E5-47ED-9919-2BF98B90317C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A4443CC-82D0-4256-9204-DAEF8A913C87}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C810F3BE-D262-4B57-B8CB-2D393ADCAD5A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8338C785-0BAF-4881-BC65-371B432D3E69}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{43C965CC-19CF-4824-A661-2EC8224ADE58}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F39C851-A6C9-4FF1-8249-24EF5CC23704}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8DA88BAD-F6A0-4F5D-8365-665B32C43E27}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71D5B1EC-961B-4914-8799-07F273671611}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A18E773-C81E-4F3E-8368-CD5B41587CE3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{037C54F7-F9D1-4FA6-B8DE-677585C98CC4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBB6F3A4-F808-4268-85DA-39B8C4C6DB70}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF08CE6A-CE56-41E7-BB8A-648387BFA0E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F76517D2-F7F1-4C7A-AF77-3881D6A13DBE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC85F338-C55A-4769-A207-B5E68E20FDBA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3E3710E6-858E-46DA-9C0B-FA2659620CC7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C568B38F-9D1A-4B44-AD07-5DEFA0B45F78}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{106A5B4D-AA29-4EFB-A31D-694D500CA78F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9546BF9-EB19-4154-BCC4-6FB6579F4862}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FACDE317-FEE7-455B-A751-2A2E40209BC2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{02801357-A8F5-4748-BEF3-97A31FDC0F05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C212F416-9F78-406B-8EDA-CDC0514FB699}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AFD27E16-8007-4920-BD2A-20C49FCEB0E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{53BD2660-C5FB-4EF2-AE7B-0ED0C9D1556A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9CD0295B-2E2A-4507-A48C-2FB73168B463}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2614,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78818BEA-377B-4629-BFDE-0FB23D102DC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21C0B85-59B2-4DCC-A226-72DC110D8E1D}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3830,18 +3830,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFEF2659-F70F-4150-9FCA-524C1465D062}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48EC0A57-8BB4-4A3C-A303-AD3F75B5F244}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9163082-6630-4601-9ADE-63E0073C455A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4CE307E4-6E29-4ADE-8F23-F8DAAAD5FAB7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DB2ED8B2-270D-4DBD-8E43-4BA3B8BF8C34}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{053184A5-56FA-4847-9CD2-9DA34EABDFF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DF54FD3-1BB7-424E-9FF2-88D8936BF82F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A3275BF-6D5D-472B-9DC4-D312F81E6FB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD55E490-6638-4B8E-A538-77E50A7609E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29D536E4-7664-4CDD-8E32-B2BC8B1AAF4A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E68A723-E425-4D3D-8DC2-5AEB65B6FB95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FF159F9-5F4D-4C4C-AE55-CFF62371158B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A292B25C-E5D1-4627-89BC-7270C1884B62}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A349E80-20EB-4527-8989-991CF74CDDCE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3609E019-0E36-4C89-A6D2-3BAA483698F4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{49CD9D18-8816-4DF1-9990-E4492693AEBE}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5E0D8F3C-26DC-49FF-805F-7EA383375358}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F028742E-2883-47FF-B4A1-A5E72C4452D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{504C8829-8F1E-4F38-8225-3169E00A5459}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74C3C8B3-CEF7-4CA9-8632-82C7898E4C73}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CF99136-8F29-435C-927F-737C4E300464}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A43DD95E-6039-4905-BB57-137D9F712802}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{635E7690-54F5-439A-9D58-ED786C8183CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CB1FB88-5726-42FA-BA4B-2EB247C9862F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3854,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEBF3C-B0DD-4DD6-BC73-D6F224729E31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28EC45A-4AF1-4BEC-A29D-5D88E7B15906}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5070,18 +5070,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C09B69E-4128-444B-9655-0F0466A19F94}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F50C46C0-C70D-4A92-AE1E-F40CDA4A12F2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{01F0FAA7-224A-4EB0-842A-6E0EC72AA4B2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87D39163-183E-4B54-9C16-BE9CA32F24BE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D61D5260-B2FE-41A8-9215-73D6312002D9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09F87342-1B41-413C-9A33-7EDA37B56D7A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3FC2AADD-7363-441D-A3CF-776E5277C102}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB884A36-EA8C-4A35-9241-26286917F32E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8492E2A1-4184-43DC-87D7-A020FA6D3E24}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA2B8ACC-D768-4AE9-92E8-4E6AF490B9AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05729884-B3FF-4152-8A43-02983BA0F084}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37D3FA3B-6F01-42D0-9205-9951236088D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D114A5A-2A23-4EE5-B2ED-9591BB128921}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB6BED7D-1AB3-4443-871D-DB4136A98FFE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7FDB3312-0493-46E3-832C-48ECF1C47316}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{464399DA-C36D-4CAB-83A9-EE6CD840FE26}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6320BC5A-755A-43EC-A343-556D42EEF334}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B187CDB-FBFC-4469-9DC1-5737E792D9E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6765611-4599-4422-83FC-591FD2E692C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4FDC128-BE07-4042-98FD-43102A0B377C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2EB471F7-1AF3-481C-BC7C-DD466DC8922A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78752C15-7F8D-4DEB-8B91-D99BC1FE28AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FA47CCD-9563-46A9-AAC9-05B5FD5F43E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96BB88F9-9180-4B8A-B594-2BBBFD306026}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5094,7 +5094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA0C820-ED43-4506-AD85-89DC72A2E16C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E7BCDD-8683-468C-81EB-17EA77E761EE}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6306,18 +6306,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5A9C498-511F-47EC-A006-BA3528E27496}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9321A892-72FB-4CDE-8AF3-8CC8C73FB8E7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{833B2A12-DD19-4CC7-9F0D-22C41366E4F8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D3C7228-C11B-4F60-9A8A-3DC6D16E502E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2C182F3C-B68C-4A06-B5AB-55E7C5D8827C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C8ACAA3-02FD-40F7-BFB8-5D66E4830B81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE24F400-EA81-48A2-A16D-034379E45D06}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C230950-D5A6-4CCE-8001-21B78B704E00}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{455262FF-D313-40BB-86A2-162281291421}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2228047C-7877-4635-B229-45702661874A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4345468-E13F-4BBA-BE70-706745B504A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5457153E-5C73-465D-8780-7B08989F8E65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C33C6BB0-A141-4668-BE9F-58A65643F44B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F52A929A-8B78-4EFD-B4BE-0374D8CE19C1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1E26B959-D047-444B-B338-05DBCF988D3B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{877DE6E4-C757-4199-9657-2371F8DBCAD3}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{18B36199-577B-43C5-8BD6-5A51EAD3B2C8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20379FC3-0A84-488B-904A-C09EABCB1196}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89C085AE-F10C-4B47-A2C0-1C39B0139993}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F42E7BDC-BF1C-43E8-9D75-8960537001ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{02C859B6-7216-499E-83A3-2B54797DEB1A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F0F8D2D-882C-4411-B9D4-94452E0C7CED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FC724B1-78C5-45C0-80C7-32CEE7C1571F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6DF2EBD6-417D-4192-9389-505BCB3A9B3C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6330,7 +6330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBFF223-864E-4321-8AD8-778A7545CECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4892DC68-53B6-4E6C-B71A-3AC1886F0077}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7557,18 +7557,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D6AD533-82CC-4098-B198-6181B5F11C00}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AFEF388-C080-4F5E-B1E9-FB5D3A82FD2A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{19C74DD2-9D21-4C4A-BDDC-EEAB9F951B1D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{37EA4BBA-E982-4F80-BBC7-C8A10E5DC328}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EE0EADF2-FA4A-44F2-AEAC-F4D26DD1D589}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F5C3F9B-21B2-4981-8167-6894BDE4EDDC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{933E19F4-CB67-4C5F-ADAF-39CCF899B0B5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8ED0BE1-9371-4654-A03F-81FE92511BB0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6AA1E5C-BEFB-4E32-B3FB-CAA7CCC4BB6A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{82E8076A-1EE9-4106-B5D4-5416DDE3BEA3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7EB68A33-C3BB-4D67-B912-37A6DACE0B66}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2360C22C-B9E0-472C-96BB-19DED05E4BA8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4928AB45-2A27-4148-ADD8-811C7808CBB3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6F1DEE7-A1C5-4DAE-B220-AD378A4BA4A6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C840F8E0-4D66-4310-AE56-897423D96598}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D21A272F-B088-4978-9261-251A006CA3C4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B4DBA62C-CD3F-43CA-8721-A29B849C90FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F4BF2514-0CC3-496C-ADE7-0001DE5FD651}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC621DA8-59C0-48B6-A1CA-CC5241F92847}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62553DD9-5570-4AE3-995D-4ADA17800487}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC897209-2763-42C3-A6B7-D1DCDA5FEE92}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3415C4A1-5CEA-44D3-BCBA-1C40A68E1C7C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D01B4C7B-3032-4F07-A5E6-0B97D53361F0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B4D058C-183C-4C71-A1CF-3783EAB1F0E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7581,7 +7581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02499BD1-4A27-491A-87DD-B55BA4DF2123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC81B0B-2F6B-4F52-9839-48577215266E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8808,18 +8808,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BE26CA4-CF68-45C4-BA42-C30CBD87C592}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6196F63-6040-4988-B320-4703854CA884}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CC09C72E-75B2-44A1-977A-76AA87768047}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C5E4EB3-C07C-4994-B596-AA8310308D86}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4EE21EF2-25F1-49A5-9F2E-1E2FCE6044F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CEB5C8CD-8E54-4E35-9E6F-4BECE6BCC0A8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9334A8A1-B721-4B2B-BDE8-AC187D606EF1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5E4C660-D97D-4121-A2A3-816ABD09F3FC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E4B81FC-3D9D-4343-B69B-1D7C8ECFD49F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3A7D788-42FF-4719-AC4A-FD44AEB78A9A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C68E0510-C526-4773-98A6-B0A422D23CF3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{304CD6D5-B6A6-45D2-A9E2-63A45926F922}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E9F3A16-27E8-4570-946E-6C22E7DF9C3B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4FD7BB5-30A7-4D48-9AFA-9D0E44AEB9A0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{773DFA0D-783B-4112-8812-972042279192}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{25B22B9A-B2FD-4D7B-AAEF-FF73FDD9BE77}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{15F5CBA6-4592-4C24-A21E-832270FDCB9C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DF02D96-C013-432F-9895-E1BF07A971D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A7D3F3D-28F1-4B85-A60D-DFCA5CF791DA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52104A29-5567-47B9-AAF9-D93B4A5CAF1C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{291FC85D-2AB3-401F-95D6-F4D704AD4863}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB06B954-8181-42AD-9C10-CFEDDC0C2DB5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C7DB3EF-8FE9-4C0D-897E-5E8F2A9D90E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0BC9023-EEF4-441C-B070-EB59DD9D8583}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8832,7 +8832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7245BAB-26F0-41CC-BFE2-91417E5828AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D6FD26-F8AB-49F3-9747-673BC0A08185}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10059,18 +10059,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26086C1E-A021-4577-90F3-3717DF78E2CE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2DD0F194-69B2-4B6C-B761-CB6A1F0993C0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2D1A3394-E487-455D-AA2B-8A26D3229181}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D1F792E4-1D35-4378-9E4A-45C8FFFF19D4}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{804DD640-2240-414A-A4C4-A0D86F741C30}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1541649E-2C7C-46D9-9526-BB43EFD8DB80}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B165576-BE5C-4F77-9EE0-220997B4202C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BE21C7A-8045-4EC8-B7CD-7EEC10B07D2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7D37F2F-7C5F-427C-BD41-B92AA72B6DC0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2AB677A1-9425-4114-BA0F-5DA6969F8036}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC6020A7-79F7-48CB-9BA2-92E4CD4C2526}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC0A8C71-66DA-4514-92BD-5191B8F83A59}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCD0ED3E-B2FC-445D-B039-67D547EC2F79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F20BBA29-EAE7-42EA-98FB-C471D2E79C23}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B62087E3-71A4-4E8A-A5E9-0E7FF0F9C30F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B9C6FFA4-1176-474B-9CBB-F5439266049C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{087BA615-F0E2-4938-85EB-E3AA2177D51B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{35059240-D835-459C-A235-9964811D6884}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D52AA98C-D16A-4691-9053-21FF00DBC0AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E970E2B0-C5AF-4967-BDFC-7768448E5FF0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A808C505-3FCE-42E1-B552-20BFCAF5BD59}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A549B1FB-2DAE-41C4-A18A-DBC3D75E81B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B51CCAF6-F163-4F15-A33D-28D6CD3FCBDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{827290A7-BAEE-449B-8141-1943F8868CA2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10083,7 +10083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B32F89C-A95E-4404-8958-731261989AA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BF4C01-1C2E-4D71-ABFB-C7B991BB8D3A}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11311,18 +11311,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{375F49C5-65AD-43CB-B538-03385064856B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B78EF79D-016F-4F64-B018-C6F21D1A8E9C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{698BA0C4-5D8A-47C1-89D9-2DAFE5EC4823}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8142774-874F-44DC-8DD7-BE859823EF5C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{90091D2C-1F27-4F91-8700-84B8034BB360}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBF03D69-2F4D-4783-B4ED-449D8EAA45BC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFB34C70-246A-4FBB-94A5-6DE68447749C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90E02EFA-A26F-4B46-8BE5-D5BF784C8F74}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76D4FF67-928E-42C7-A36B-0CE4E7CC0054}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AE8E8DFB-7C99-4850-A19D-F86169893BA5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97589948-0DD8-4274-A06C-ABCCDEB0A6FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8903A4D-2909-47A5-AAC3-19DEFCE0136B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8EAF9ED6-23EC-4325-AE03-37AD1B2C0754}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2266253-A317-4643-98AC-274183C84C2B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B07FB478-B5A3-47BC-977E-9D37B299EF03}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F887F2D-C1CB-4D2B-BBEA-9B139C72DB3B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{881CF7BA-EE34-4C6C-A5CD-477CF4324B60}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{594AC3D9-7E67-4A70-8EDE-3DBD650D218E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92822C6B-CBDF-4975-A864-2B9FAD11611F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F4D90DF-1F59-46B0-816C-D2855F20BA55}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42486245-E5D2-4212-88AB-985C981E2D30}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C80FC7EF-86CF-45EB-8DD9-C9795DCB413E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1AF1BFDB-E399-44B8-9E2F-5CC0900A027B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F1447B5-2ADC-4B49-A65B-E35471D6C9DA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11335,7 +11335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF42F1E-12BD-4AF7-8103-265BADC50322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF53107C-8096-400A-99DB-CBE126E2E152}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12563,18 +12563,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F72C0B77-AE5F-43ED-BD71-782D94086374}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2387ABDF-EE3F-4700-A78E-7D413825E0DB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3E852A4D-9C13-4EF5-9DFC-B02A82B79C24}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CBDFB2A-F1FB-4511-80A5-C75851BB31CD}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4DAA31FB-4951-4CE7-856F-1FCB6A03306A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0E596DE-3BFF-41E8-AA07-61B888A6301F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38B8EAF3-331A-49BE-9ABA-6C6CB97FF796}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F0CCAF4-9CA8-47E4-B6CB-28C34A45E6B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCC26FE1-C7B1-4656-8B4B-B4FD7840124B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B86A403D-9B00-4A99-8AD6-CEE87BBCA179}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5468436-A65F-4FC6-9FB5-7587545418C0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCF65F4C-F973-4FA4-BEFD-0D2EC727068F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CDB2E02-EE2D-47FD-A227-8717B96E56A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C98FCBE5-9AAF-4314-B46A-B3FA02E4628A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A7924F7-0A9A-462B-9B4C-A5ED7866FBAB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02AD2A9A-062E-42A6-8E1C-5EB34B7B794E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CA5F3C89-F6C7-4F8F-9DFC-8D899CEC16A3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C53C130-CE82-4C45-A35F-5D750C3E85E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{814D7F8E-B519-4A5D-BE9A-2DB359A99F90}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{083B9514-8810-4C4C-A8DC-72DEFF6ACDC0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AF31B711-8649-4D38-A38B-5CED77C4024A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A7963D76-0B35-4871-8804-1AE1DBD9717D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCA07894-3038-40CD-98A6-B03430ED477C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C8D9849-C01C-406C-BCC3-E235342F21E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12587,7 +12587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51062231-1686-4A57-AF31-8C4169E8DCDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A129AD8-7ECC-4B10-BBF9-4815A4744E3C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -13811,18 +13811,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BF5C1D7-B0C2-498B-8098-9D07FBCE3C5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{800AA53B-9E8B-46AE-904F-9551243D4E12}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{050AE301-8CED-4A8A-9350-092E1C7A3D40}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C5AD579-2270-442B-A577-7DDF7E5067BC}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FE6D288D-B311-411F-BCC4-12D27B358A32}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67E55ECD-A30C-452C-B731-DA712E7430B7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D83A6086-EB52-491A-B7CC-E8C00D1CD0AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{078BDBA1-F176-45D9-B529-D55BE8BF5D77}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B3AB873-6D60-44CC-9FC2-53C91C079BD4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D936212F-1465-4C62-A6A5-86C105B917ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8244048A-CB1D-4676-A9BF-33073F146B7E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C171B0E-61A6-4517-A3B1-DD9E4FD10680}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61281C0E-A1FA-4D01-84F6-A2AB69F7FB8F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5281DA31-47C1-4390-98E1-D1FE1D025637}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5751EE32-28A8-4197-AE62-3D925CCA3363}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4A437B0D-2EA4-41FD-8E49-075582380FF7}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BA677033-91B5-4415-80ED-34E6FA43E48C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A7AE4B7-E0AB-41F4-B06F-795216E4747A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1424029E-D098-45B2-983D-AFCD65416D4F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B90FEF4-66C2-4128-93B7-DC2F17C89530}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72C867B8-2388-429A-AA0C-CC5C5C99090A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E2287368-122E-4B7C-9D6D-8C2A8BE26201}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B816F42-734C-4882-A416-8056B6947CB6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D36D3F28-71BE-4E45-BFCE-30823AC47950}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13835,7 +13835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05C82DB-34CB-4D8E-ADF6-FA863354B4EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDE5E35-C10E-4D6D-9DD3-9AA1B15617EB}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15059,18 +15059,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4EC2C7B-952C-4FF3-90DC-980609457F76}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D9881AE-5411-4264-AF97-12D5275A0A0B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C98210A-5CA3-46CC-B568-E1FA309298B8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{567707E0-03E5-405A-9209-7793A4E1FB8A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{22857292-A281-4846-9770-8BF73F21DDD7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45BD78B0-1F6F-4042-824E-F9CF84919795}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED0C010E-6475-43FE-9F51-A91FF5061710}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C304C7B-2B79-4835-9CBE-03F207995C54}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E99D07E-018C-4511-9217-E18D70CAA71C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D8F7EBC-4800-4154-B089-87E99E7D1C7C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF9E7726-A380-4376-B54A-FB5945EA405B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5CDBA21-F58A-49CA-B5EC-0D4CFC9C088F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{574008A3-E735-4606-BBC2-830F776BC395}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B80C07BB-4213-4764-BABC-DB02BF9037CF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C75287D3-1FF1-4E5E-A43A-D12CFD377211}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6E1AED61-7362-4C7E-AA0B-F76CA8921361}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{68033F87-820E-4F16-979B-92F24962FA79}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43288E31-49B6-40D2-AFC0-66156960ACDE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{416B3D4E-9D4D-45D1-ACF7-96A9242E2FEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3497BAFA-7A6D-40A4-8AEB-28091ED01BE4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69AC0E41-05C3-44FF-AA2E-5B7320EC33C0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{51331F53-E40A-48C5-8D58-A70CB3E4CE03}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8A2C275-2253-41F1-A631-CFB3970A67D9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E458F77-AFDD-4450-BBFD-9DEE77633318}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15083,7 +15083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774BE0FB-1AF8-4115-B91A-713D20C80845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25704DC1-B674-4444-8912-A60615D8FE5B}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16307,18 +16307,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3B9F494-C095-4FCD-A8EE-324BDCF1969C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30B86DBF-2C02-445C-88F0-F0ABD7F0D30E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E6ED0BEB-8510-4BDC-9424-8317D4648C72}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE8D0C2B-18EB-431D-9A54-B6AF961784E1}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{10571258-D26B-4A3D-8EDA-9B702FD1114D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B25EA7B5-A86A-4917-AF99-9EC4B5059262}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A2A9DF5-F93A-4FE8-82B5-3D869D4F3084}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFCFC1E9-4973-479D-AED9-0FB9A7FB2502}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00BA951D-0295-4240-B741-5160ED7001D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3648F703-106A-4297-AEFB-D15383A984B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2ADEC75D-DAA0-4756-89C2-74928A2CFCFD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0987337E-0054-4B06-A11E-33A9454441C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93F2E5D3-BD99-4DB1-A393-7C4CB43A2BA7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9001893F-B76D-4ED2-A444-0B5ABFE593CF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EB7C79A0-B498-43C7-B89C-12AEC31DBC95}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88B6AC90-C1BF-4F50-ADF5-DFB65BE15098}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0008B2B0-FFF0-4755-8060-A90E38481117}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F17B2E97-2509-45AC-8AF5-2A4BC6FD51E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3BD19E6-50F7-49C1-9122-3A25D4E97899}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{556684D7-6CAE-45F9-AB7A-85C2A149E967}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3DA3BB2-3E1F-45C1-9F54-0ED4213AB53C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31C0BD8E-4CF1-4A47-B9F5-2ABCF8E0768A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AD18129-A9C3-4A69-A30F-806BC3202338}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6587F326-1E85-4030-8E8C-C7E417651F0C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
